--- a/src/download/rts27/Table_4.xlsx
+++ b/src/download/rts27/Table_4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekswift/Dropbox (Binary Services Ltd)/RMG_incorporation/Binary Investments (Europe) Ltd/MFSA/Data Requests/RTS27/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/derekswift/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{712708FE-8EF9-C444-BE45-8442B7222044}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA7378-335C-DB4B-88A2-444CCE994556}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16060" yWindow="1220" windowWidth="18240" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16060" yWindow="460" windowWidth="18240" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
     <numFmt numFmtId="164" formatCode="0.##########"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -193,6 +193,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -218,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -226,6 +231,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,27 +549,27 @@
   <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D1" t="s">
